--- a/storage/app/assets.xlsx
+++ b/storage/app/assets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cechriza\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209B2F78-5B1F-4DFF-998E-D059CF3CA98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C94B3-B825-4583-B086-6F5C9F1D0AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E9455EA6-309A-4CAE-A1B0-EDC3900A81FA}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9455EA6-309A-4CAE-A1B0-EDC3900A81FA}"/>
   </bookViews>
   <sheets>
     <sheet name="CECH LIMA" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="500">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -227,9 +227,6 @@
     <t>ATOCHE DIAZ</t>
   </si>
   <si>
-    <t>CARGADOR-PATCHCORD</t>
-  </si>
-  <si>
     <t>CHUQUISPUMA RAMON</t>
   </si>
   <si>
@@ -602,9 +599,6 @@
     <t>MANUEL ALFREDO</t>
   </si>
   <si>
-    <t>ARRIVASPLATA GUANILLO</t>
-  </si>
-  <si>
     <t>1DKTYY2</t>
   </si>
   <si>
@@ -794,12 +788,6 @@
     <t>FRETEL CAMPO</t>
   </si>
   <si>
-    <t>ANGELO CRISTHIAN</t>
-  </si>
-  <si>
-    <t>GERONIMO MEDRANO</t>
-  </si>
-  <si>
     <t>5CG6266Z45</t>
   </si>
   <si>
@@ -1088,9 +1076,6 @@
     <t>EDWARD JEREMY</t>
   </si>
   <si>
-    <t>LOPEZ URCOHUARANGA</t>
-  </si>
-  <si>
     <t>14-BS11LA</t>
   </si>
   <si>
@@ -1118,9 +1103,6 @@
     <t>EDDY CARLOS</t>
   </si>
   <si>
-    <t>JOSE EMANUEL</t>
-  </si>
-  <si>
     <t>JAIME ANTHONY</t>
   </si>
   <si>
@@ -1190,9 +1172,6 @@
     <t>DAVID ALFREDO</t>
   </si>
   <si>
-    <t>ORLANDO WILFREDO</t>
-  </si>
-  <si>
     <t>GIANCARLO</t>
   </si>
   <si>
@@ -1277,18 +1256,9 @@
     <t>PF3T3KAC</t>
   </si>
   <si>
-    <t>CARGADOR + FUNDA</t>
-  </si>
-  <si>
-    <t>CARGADOR + CABLE ETHERNET</t>
-  </si>
-  <si>
     <t>Latitude 5400</t>
   </si>
   <si>
-    <t>CARGADOR + MOUSE</t>
-  </si>
-  <si>
     <t>Lenovo</t>
   </si>
   <si>
@@ -1319,9 +1289,6 @@
     <t>K6NOGR05323024H</t>
   </si>
   <si>
-    <t>CARGADOR+ CABLE ETHERNET</t>
-  </si>
-  <si>
     <t>83A1</t>
   </si>
   <si>
@@ -1554,6 +1521,33 @@
   </si>
   <si>
     <t>i5-8500T</t>
+  </si>
+  <si>
+    <t>LOPEZ URCOHURANGA</t>
+  </si>
+  <si>
+    <t>ANGELO</t>
+  </si>
+  <si>
+    <t>GERONIMO</t>
+  </si>
+  <si>
+    <t>ARRIVASPLATA GUANILO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILFREDO ORLANDO </t>
+  </si>
+  <si>
+    <t>JOSUE EMANUEL</t>
+  </si>
+  <si>
+    <t>CARGADOR,PATCHCORD</t>
+  </si>
+  <si>
+    <t>CARGADOR,MOUSE</t>
+  </si>
+  <si>
+    <t>CARGADOR,FUNDA</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1659,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1705,6 +1699,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,7 +1910,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1971,12 +1971,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1998,9 +1992,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2036,21 +2027,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2502,44 +2502,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -2765,16 +2727,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{048782A8-1709-494E-9294-B47F686F14F6}" name="Tabla1" displayName="Tabla1" ref="A1:N100" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
-  <autoFilter ref="A1:N100" xr:uid="{048782A8-1709-494E-9294-B47F686F14F6}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="BM8VMV2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{048782A8-1709-494E-9294-B47F686F14F6}" name="Tabla1" displayName="Tabla1" ref="A1:N100" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+  <autoFilter ref="A1:N100" xr:uid="{048782A8-1709-494E-9294-B47F686F14F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N65">
-    <sortCondition sortBy="cellColor" ref="A1:A100" dxfId="63"/>
+    <sortCondition sortBy="cellColor" ref="A1:A100" dxfId="58"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{A5B24B35-4320-4082-A617-C4970937CEA5}" name="NOMBRES"/>
@@ -2797,10 +2753,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80A219E3-F2BC-49DB-93AB-B078A1F0E118}" name="Tabla13" displayName="Tabla13" ref="A1:M102" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80A219E3-F2BC-49DB-93AB-B078A1F0E118}" name="Tabla13" displayName="Tabla13" ref="A1:M102" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="A1:M102" xr:uid="{80A219E3-F2BC-49DB-93AB-B078A1F0E118}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M102">
-    <sortCondition sortBy="cellColor" ref="A1:A102" dxfId="61"/>
+    <sortCondition sortBy="cellColor" ref="A1:A102" dxfId="56"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{9A65F2B1-112E-43F9-AB9D-764926F83199}" name="NOMBRES"/>
@@ -2822,14 +2778,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93B2C754-B355-46EF-A2C2-1977F7E40287}" name="Tabla134" displayName="Tabla134" ref="A1:L117" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
-  <autoFilter ref="A1:L117" xr:uid="{93B2C754-B355-46EF-A2C2-1977F7E40287}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="BM8VMV2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93B2C754-B355-46EF-A2C2-1977F7E40287}" name="Tabla134" displayName="Tabla134" ref="A1:L117" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="A1:L117" xr:uid="{93B2C754-B355-46EF-A2C2-1977F7E40287}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{87B50938-5309-4A9E-9CFE-C21BCD3F4F61}" name="NOMBRES"/>
     <tableColumn id="2" xr3:uid="{93561E5C-3BDD-49D7-9DA8-AD282D35577E}" name="APELLIDOS"/>
@@ -2849,7 +2799,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00F5F584-872A-4EED-86E2-EF902D61E210}" name="Tabla5" displayName="Tabla5" ref="A1:I3" totalsRowShown="0" headerRowDxfId="56" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00F5F584-872A-4EED-86E2-EF902D61E210}" name="Tabla5" displayName="Tabla5" ref="A1:I3" totalsRowShown="0" headerRowDxfId="51" tableBorderDxfId="50">
   <autoFilter ref="A1:I3" xr:uid="{00F5F584-872A-4EED-86E2-EF902D61E210}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{44FB088F-BBF4-4F04-BC09-00722A46D3E7}" name="EQUIPO"/>
@@ -2867,7 +2817,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D4213773-B5E8-4DC5-A28F-C4BD1D18837D}" name="Tabla57" displayName="Tabla57" ref="A1:K2" totalsRowShown="0" headerRowDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D4213773-B5E8-4DC5-A28F-C4BD1D18837D}" name="Tabla57" displayName="Tabla57" ref="A1:K2" totalsRowShown="0" headerRowDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="A1:K2" xr:uid="{D4213773-B5E8-4DC5-A28F-C4BD1D18837D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F1CE37B0-EF7C-4305-9A32-C3F0B571054A}" name="EQUIPO"/>
@@ -2887,7 +2837,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4E7E247-37E4-4F04-8B0B-A776347FF6CB}" name="Tabla4" displayName="Tabla4" ref="A1:I20" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4E7E247-37E4-4F04-8B0B-A776347FF6CB}" name="Tabla4" displayName="Tabla4" ref="A1:I20" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="A1:I20" xr:uid="{F4E7E247-37E4-4F04-8B0B-A776347FF6CB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{53C7B63E-4260-42CB-890C-34B3EB585039}" name="EQUIPO"/>
@@ -3202,12 +3152,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7761B29A-5971-49DE-B10E-5797F40E0A99}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,11 +3219,11 @@
         <v>12</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -3309,9 +3259,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>372</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>366</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3346,12 +3296,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>371</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>365</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -3363,13 +3313,13 @@
         <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" t="s">
         <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
       </c>
       <c r="I4" t="s">
         <v>30</v>
@@ -3380,15 +3330,15 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>365</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -3397,43 +3347,43 @@
         <v>16</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G5" s="4"/>
       <c r="J5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>382</v>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>375</v>
       </c>
       <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>22</v>
@@ -3441,12 +3391,12 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>367</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>361</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -3458,7 +3408,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>41</v>
@@ -3470,56 +3420,56 @@
         <v>21</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>358</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>444</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="H8" s="43" t="s">
+      <c r="E8" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="I8" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="43"/>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>363</v>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -3531,7 +3481,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>41</v>
@@ -3543,57 +3493,57 @@
         <v>21</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>409</v>
+        <v>499</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" s="34"/>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10" s="42" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>369</v>
+      <c r="J10" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>363</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>15</v>
@@ -3602,11 +3552,11 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -3615,19 +3565,19 @@
         <v>30</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>410</v>
+        <v>497</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="51"/>
-    </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>366</v>
+      <c r="N11" s="49"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>360</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>15</v>
@@ -3636,13 +3586,13 @@
         <v>16</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -3651,53 +3601,53 @@
         <v>21</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>412</v>
+        <v>498</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>352</v>
+      <c r="N13" s="46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>347</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="4"/>
@@ -3708,81 +3658,81 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="44" t="s">
+      <c r="C15" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
+      <c r="J15" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="N15" s="43"/>
-    </row>
-    <row r="16" spans="1:14" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="B16" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" s="43"/>
-    </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>383</v>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>376</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -3791,50 +3741,53 @@
         <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="4"/>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
       <c r="M17" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="B18" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="C18" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="43" t="s">
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43" t="s">
-        <v>412</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="43"/>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="B19" s="41" t="s">
         <v>156</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>157</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -3843,7 +3796,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="4"/>
@@ -3853,10 +3806,10 @@
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="N19" s="61"/>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="N19" s="58"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
@@ -3890,12 +3843,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>368</v>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>362</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>15</v>
@@ -3904,13 +3857,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
@@ -3924,12 +3877,12 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
-        <v>353</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>348</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -3961,12 +3914,12 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
         <v>161</v>
-      </c>
-      <c r="B23" t="s">
-        <v>162</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -3978,7 +3931,7 @@
         <v>33</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>35</v>
@@ -3993,15 +3946,15 @@
         <v>22</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>387</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>380</v>
       </c>
       <c r="B24" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -4010,64 +3963,64 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G24" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H24" t="s">
         <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="B25" s="43" t="s">
+    <row r="25" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="J25" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
       <c r="M25" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="43"/>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B26" t="s">
@@ -4103,12 +4056,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>360</v>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>354</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>15</v>
@@ -4120,7 +4073,7 @@
         <v>39</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>41</v>
@@ -4132,20 +4085,20 @@
         <v>21</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
-        <v>364</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>358</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>15</v>
@@ -4154,13 +4107,13 @@
         <v>38</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -4174,15 +4127,15 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>375</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>369</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -4194,7 +4147,7 @@
         <v>39</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>41</v>
@@ -4206,18 +4159,18 @@
         <v>21</v>
       </c>
       <c r="J29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="35" t="s">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>80</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>15</v>
@@ -4226,13 +4179,13 @@
         <v>16</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>29</v>
@@ -4246,15 +4199,15 @@
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
       <c r="M30" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="B31" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="B31" t="s">
-        <v>85</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>15</v>
@@ -4281,15 +4234,15 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>376</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>370</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>15</v>
@@ -4298,13 +4251,13 @@
         <v>16</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
@@ -4318,12 +4271,12 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>381</v>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>374</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>15</v>
@@ -4335,7 +4288,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>41</v>
@@ -4352,12 +4305,12 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -4369,7 +4322,7 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>28</v>
@@ -4384,12 +4337,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
-        <v>357</v>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>351</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>15</v>
@@ -4401,7 +4354,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>41</v>
@@ -4418,15 +4371,15 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B36" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>15</v>
@@ -4438,7 +4391,7 @@
         <v>39</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>41</v>
@@ -4455,15 +4408,15 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>358</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>352</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -4472,10 +4425,10 @@
         <v>25</v>
       </c>
       <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
         <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>48</v>
@@ -4492,15 +4445,15 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="72" t="s">
+        <v>496</v>
+      </c>
+      <c r="B38" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="B38" t="s">
-        <v>114</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
@@ -4512,7 +4465,7 @@
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>41</v>
@@ -4529,15 +4482,15 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
-        <v>377</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>371</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>15</v>
@@ -4546,31 +4499,31 @@
         <v>38</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
       </c>
       <c r="I39" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B40" t="s">
         <v>135</v>
-      </c>
-      <c r="J39" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>373</v>
-      </c>
-      <c r="B40" t="s">
-        <v>136</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>15</v>
@@ -4579,13 +4532,13 @@
         <v>16</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
@@ -4597,15 +4550,15 @@
         <v>22</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
-        <v>380</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="73" t="s">
+        <v>495</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>45</v>
@@ -4617,10 +4570,10 @@
         <v>46</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>20</v>
@@ -4634,12 +4587,12 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>370</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
+        <v>364</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
@@ -4674,12 +4627,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
-        <v>374</v>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -4691,7 +4644,7 @@
         <v>39</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>41</v>
@@ -4708,131 +4661,75 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
     </row>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="48" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="46" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="43" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="duplicateValues" dxfId="42" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="duplicateValues" dxfId="41" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="duplicateValues" dxfId="40" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="duplicateValues" dxfId="38" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="duplicateValues" dxfId="37" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="duplicateValues" dxfId="36" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="duplicateValues" dxfId="35" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="duplicateValues" dxfId="34" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{49C3C192-6F1E-4E9D-A016-4A4A06A791EA}"/>
@@ -4879,7 +4776,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4936,15 +4833,15 @@
         <v>12</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>187</v>
+      <c r="A2" s="43" t="s">
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -4953,10 +4850,10 @@
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>41</v>
@@ -4972,51 +4869,51 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="G3" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>214</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -5028,7 +4925,7 @@
         <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>41</v>
@@ -5045,11 +4942,11 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>308</v>
+      <c r="A5" s="43" t="s">
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -5058,25 +4955,25 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G5" s="11"/>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
         <v>178</v>
-      </c>
-      <c r="B6" t="s">
-        <v>179</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -5085,13 +4982,13 @@
         <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>20</v>
@@ -5104,15 +5001,15 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>271</v>
+      <c r="A7" s="43" t="s">
+        <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -5124,7 +5021,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>35</v>
@@ -5140,15 +5037,15 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>216</v>
+      <c r="A8" s="43" t="s">
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -5157,10 +5054,10 @@
         <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
@@ -5169,102 +5066,102 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>295</v>
+      <c r="A9" s="43" t="s">
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G9" s="4"/>
       <c r="J9" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="M9" s="51"/>
+        <v>293</v>
+      </c>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>246</v>
+      <c r="A10" s="44" t="s">
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F10" s="56"/>
+        <v>404</v>
+      </c>
+      <c r="F10" s="53"/>
       <c r="G10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="M10" s="51"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>319</v>
+      <c r="A12" s="44" t="s">
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -5276,11 +5173,11 @@
         <v>16</v>
       </c>
       <c r="E12"/>
-      <c r="F12" s="54" t="s">
-        <v>320</v>
+      <c r="F12" s="51" t="s">
+        <v>316</v>
       </c>
       <c r="G12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -5293,16 +5190,16 @@
       </c>
       <c r="K12"/>
       <c r="L12" s="35" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M12"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>234</v>
+      <c r="A13" s="43" t="s">
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -5314,7 +5211,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>28</v>
@@ -5330,15 +5227,15 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>248</v>
+      <c r="A14" s="70" t="s">
+        <v>492</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>249</v>
+        <v>493</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -5350,7 +5247,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
@@ -5362,15 +5259,15 @@
         <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>238</v>
+      <c r="A15" s="43" t="s">
+        <v>236</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -5379,10 +5276,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>41</v>
@@ -5398,15 +5295,15 @@
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>228</v>
+      <c r="A16" s="43" t="s">
+        <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -5415,13 +5312,13 @@
         <v>16</v>
       </c>
       <c r="E16" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>20</v>
@@ -5434,15 +5331,15 @@
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>290</v>
+      <c r="A17" s="43" t="s">
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -5451,13 +5348,13 @@
         <v>38</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>20</v>
@@ -5470,15 +5367,15 @@
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>264</v>
+      <c r="A18" s="43" t="s">
+        <v>260</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
@@ -5487,10 +5384,10 @@
         <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>41</v>
@@ -5506,62 +5403,62 @@
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>279</v>
+      <c r="A19" s="43" t="s">
+        <v>275</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>268</v>
+      <c r="A20" s="43" t="s">
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>35</v>
@@ -5578,11 +5475,11 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>219</v>
+      <c r="A21" s="43" t="s">
+        <v>217</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>15</v>
@@ -5591,7 +5488,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="4" t="s">
@@ -5604,53 +5501,53 @@
         <v>21</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>59</v>
+        <v>497</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="40" t="s">
+      <c r="A22" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="G22" s="40" t="s">
+      <c r="E22" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>303</v>
+      </c>
+      <c r="G22" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="74" t="s">
         <v>22</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
-        <v>275</v>
+      <c r="A23" s="43" t="s">
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>15</v>
@@ -5662,7 +5559,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>28</v>
@@ -5678,18 +5575,18 @@
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>252</v>
+      <c r="A24" s="44" t="s">
+        <v>248</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -5698,7 +5595,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>35</v>
@@ -5714,11 +5611,11 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>256</v>
+      <c r="A25" s="43" t="s">
+        <v>252</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>15</v>
@@ -5727,10 +5624,10 @@
         <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>41</v>
@@ -5746,15 +5643,15 @@
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>286</v>
+      <c r="A26" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="B26" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -5766,10 +5663,10 @@
         <v>46</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
@@ -5778,31 +5675,31 @@
         <v>49</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>59</v>
+        <v>497</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>311</v>
+      <c r="A27" s="43" t="s">
+        <v>307</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>35</v>
@@ -5819,11 +5716,11 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>260</v>
+      <c r="A28" s="44" t="s">
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
@@ -5835,7 +5732,7 @@
         <v>33</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>35</v>
@@ -5850,15 +5747,15 @@
         <v>22</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
-        <v>302</v>
+      <c r="A29" s="43" t="s">
+        <v>298</v>
       </c>
       <c r="B29" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>15</v>
@@ -5870,7 +5767,7 @@
         <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>41</v>
@@ -5887,11 +5784,11 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
-        <v>222</v>
+      <c r="A30" s="44" t="s">
+        <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -5903,7 +5800,7 @@
         <v>33</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>35</v>
@@ -5919,11 +5816,11 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>386</v>
+      <c r="A31" s="43" t="s">
+        <v>379</v>
       </c>
       <c r="B31" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>15</v>
@@ -5935,7 +5832,7 @@
         <v>39</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>41</v>
@@ -5951,15 +5848,15 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
-        <v>225</v>
+      <c r="A32" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -5971,7 +5868,7 @@
         <v>39</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>41</v>
@@ -5988,11 +5885,11 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" t="s">
         <v>170</v>
-      </c>
-      <c r="B33" t="s">
-        <v>171</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>15</v>
@@ -6004,7 +5901,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>41</v>
@@ -6020,15 +5917,15 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>183</v>
+      <c r="A34" s="71" t="s">
+        <v>182</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>494</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>15</v>
@@ -6037,10 +5934,10 @@
         <v>25</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>28</v>
@@ -6056,15 +5953,15 @@
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
-        <v>242</v>
+      <c r="A35" s="43" t="s">
+        <v>240</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>15</v>
@@ -6076,7 +5973,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>41</v>
@@ -6092,15 +5989,15 @@
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
-        <v>314</v>
+      <c r="A36" s="43" t="s">
+        <v>310</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>15</v>
@@ -6109,10 +6006,10 @@
         <v>38</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>317</v>
+        <v>312</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>313</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>19</v>
@@ -6128,15 +6025,15 @@
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
-        <v>205</v>
+      <c r="A37" s="43" t="s">
+        <v>203</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>15</v>
@@ -6148,7 +6045,7 @@
         <v>39</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>41</v>
@@ -6164,15 +6061,15 @@
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
-        <v>298</v>
+      <c r="A38" s="43" t="s">
+        <v>294</v>
       </c>
       <c r="B38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>15</v>
@@ -6183,8 +6080,8 @@
       <c r="E38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="56" t="s">
-        <v>300</v>
+      <c r="F38" s="53" t="s">
+        <v>296</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>41</v>
@@ -6200,15 +6097,15 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" t="s">
         <v>174</v>
-      </c>
-      <c r="B39" t="s">
-        <v>175</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>15</v>
@@ -6219,8 +6116,8 @@
       <c r="E39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="56" t="s">
-        <v>176</v>
+      <c r="F39" s="53" t="s">
+        <v>175</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>41</v>
@@ -6236,15 +6133,15 @@
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
-        <v>191</v>
+      <c r="A40" s="44" t="s">
+        <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -6253,91 +6150,91 @@
         <v>25</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="35" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="54"/>
+      <c r="F49" s="51"/>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F72" s="54"/>
+      <c r="F72" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="27" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="26" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="25" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="24" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="23" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="duplicateValues" dxfId="22" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="duplicateValues" dxfId="21" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="duplicateValues" dxfId="20" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="duplicateValues" dxfId="19" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="duplicateValues" dxfId="18" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="duplicateValues" dxfId="17" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="duplicateValues" dxfId="16" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="L5" r:id="rId1" xr:uid="{C97769CF-3044-42AD-8E73-0AAB929F2485}"/>
@@ -6380,10 +6277,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE95060-0F69-4C4A-A3AE-72A8B7704C13}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6437,33 +6334,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>323</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>22</v>
@@ -6471,77 +6368,77 @@
       <c r="K2" s="4"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>326</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="59" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
         <v>330</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" t="s">
-        <v>334</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>335</v>
-      </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -6550,20 +6447,23 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G5" s="4"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>337</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>333</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -6572,10 +6472,10 @@
         <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>41</v>
@@ -6591,44 +6491,44 @@
       </c>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>340</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>343</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -6637,10 +6537,10 @@
         <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
@@ -6649,18 +6549,18 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>345</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>491</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -6669,18 +6569,21 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>128</v>
+      <c r="A10" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
@@ -6692,7 +6595,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>35</v>
@@ -6704,243 +6607,140 @@
         <v>21</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>59</v>
+        <v>497</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="F12" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="60">
+        <v>8551705504</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="F14" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="43" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>395</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>399</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="F13" s="63">
-        <v>8551705504</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>399</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>404</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>405</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="18" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="19" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="20" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="22" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="23" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="24" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="26" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="27" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="28" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="30" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="31" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="32" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="36" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="37" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="39" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6995,7 +6795,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7006,13 +6806,13 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="I2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7023,39 +6823,39 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="I3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="65" t="s">
-        <v>430</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>431</v>
-      </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65" t="s">
-        <v>432</v>
+      <c r="C4" s="62" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7112,13 +6912,13 @@
         <v>9</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7129,51 +6929,51 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="I2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="J2" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="K2" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="70" t="s">
-        <v>484</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>485</v>
-      </c>
-      <c r="F3" s="70" t="s">
+      <c r="C3" s="67" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="70" t="s">
-        <v>486</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="70" t="s">
-        <v>487</v>
+      <c r="G3" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>476</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -7231,7 +7031,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7242,19 +7042,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>22</v>
@@ -7262,26 +7062,26 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>492</v>
-      </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+        <v>479</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7292,49 +7092,49 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -7362,243 +7162,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1" s="68" t="s">
+      <c r="A1" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="68" t="s">
-        <v>481</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>482</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>483</v>
+      <c r="D1" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="69">
+        <v>440</v>
+      </c>
+      <c r="E2" s="66">
         <v>664</v>
       </c>
       <c r="F2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>456</v>
+        <v>444</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>445</v>
       </c>
       <c r="F3" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>458</v>
+        <v>444</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>447</v>
       </c>
       <c r="F4" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
-        <v>455</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>461</v>
+        <v>444</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>450</v>
       </c>
       <c r="F5" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D6" t="s">
-        <v>455</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>464</v>
+        <v>444</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>453</v>
       </c>
       <c r="F6" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E7" s="69">
+        <v>440</v>
+      </c>
+      <c r="E7" s="66">
         <v>544</v>
       </c>
       <c r="F7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>469</v>
+        <v>444</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>458</v>
       </c>
       <c r="F8" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>472</v>
+        <v>440</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>461</v>
       </c>
       <c r="F9" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D10" t="s">
-        <v>455</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>476</v>
+        <v>444</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>465</v>
       </c>
       <c r="F10" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C11" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>479</v>
+        <v>444</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>468</v>
       </c>
       <c r="F11" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>456</v>
+        <v>444</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>445</v>
       </c>
       <c r="F12" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -7616,6 +7416,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Responsable xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa" xsi:nil="true"/>
+    <Fecha xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa" xsi:nil="true"/>
+    <TaxCatchAll xmlns="7d884445-3d2b-4d2f-a5c8-52f2c582d699" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010053AD0A1E33F41645B7C17AA3FE2FDC7A" ma:contentTypeVersion="21" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d3047d8b2c195696087e98843153f143">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa" xmlns:ns3="7d884445-3d2b-4d2f-a5c8-52f2c582d699" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f9fb659f12e922e720e9af332d44a36" ns2:_="" ns3:_="">
     <xsd:import namespace="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa"/>
@@ -7890,19 +7703,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Responsable xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa" xsi:nil="true"/>
-    <Fecha xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa" xsi:nil="true"/>
-    <TaxCatchAll xmlns="7d884445-3d2b-4d2f-a5c8-52f2c582d699" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F158E06-BAB0-4893-91C7-AC2D0B102A6C}">
   <ds:schemaRefs>
@@ -7912,6 +7712,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590544F1-C56B-4980-8803-5B1A718685B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7d884445-3d2b-4d2f-a5c8-52f2c582d699"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A08F8860-4C76-4EF1-B3E0-9B345E1D4F41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7928,21 +7745,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590544F1-C56B-4980-8803-5B1A718685B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7d884445-3d2b-4d2f-a5c8-52f2c582d699"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/storage/app/assets.xlsx
+++ b/storage/app/assets.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cechriza\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C94B3-B825-4583-B086-6F5C9F1D0AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95272A03-DBE3-4416-A43F-64B4FAA41515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9455EA6-309A-4CAE-A1B0-EDC3900A81FA}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E9455EA6-309A-4CAE-A1B0-EDC3900A81FA}"/>
   </bookViews>
   <sheets>
     <sheet name="CECH LIMA" sheetId="1" r:id="rId1"/>
     <sheet name="CECH PROVINCIA" sheetId="2" r:id="rId2"/>
     <sheet name="YDIEZA" sheetId="3" r:id="rId3"/>
-    <sheet name="BAJA" sheetId="5" r:id="rId4"/>
-    <sheet name="REPARACIÓN" sheetId="6" r:id="rId5"/>
-    <sheet name="EQUIPOS DISPONIBLES" sheetId="4" r:id="rId6"/>
-    <sheet name="IMPRESORAS" sheetId="7" r:id="rId7"/>
+    <sheet name="ADMINISTRATIVOS" sheetId="8" r:id="rId4"/>
+    <sheet name="BAJA" sheetId="5" r:id="rId5"/>
+    <sheet name="REPARACIÓN" sheetId="6" r:id="rId6"/>
+    <sheet name="EQUIPOS DISPONIBLES" sheetId="4" r:id="rId7"/>
+    <sheet name="IMPRESORAS" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'CECH LIMA'!$C$33:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'CECH LIMA'!$C$33:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="697">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -1548,13 +1549,604 @@
   </si>
   <si>
     <t>CARGADOR,FUNDA</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Razón Social</t>
+  </si>
+  <si>
+    <t>Nombres y Apellidos</t>
+  </si>
+  <si>
+    <t>Piso</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Tipo de equipo</t>
+  </si>
+  <si>
+    <t>Placa Madre</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Sistema Operativo</t>
+  </si>
+  <si>
+    <t>Versión de Sistema Operativo</t>
+  </si>
+  <si>
+    <t>Licencia</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versión de Office </t>
+  </si>
+  <si>
+    <t>Nombre de Equipo</t>
+  </si>
+  <si>
+    <t>Serie de Equipo</t>
+  </si>
+  <si>
+    <t>Procesador</t>
+  </si>
+  <si>
+    <t>Tipo de almacenamiento  1</t>
+  </si>
+  <si>
+    <t>Capacidad disco 1</t>
+  </si>
+  <si>
+    <t>Estado Disco 1</t>
+  </si>
+  <si>
+    <t>Tipo de almacenamiento  2</t>
+  </si>
+  <si>
+    <t>Capacidad disco 2</t>
+  </si>
+  <si>
+    <t>Estado Disco 2</t>
+  </si>
+  <si>
+    <t>Capacidad Total de RAM</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Recomendaciones</t>
+  </si>
+  <si>
+    <t>Axel Panduro</t>
+  </si>
+  <si>
+    <t>Almacén</t>
+  </si>
+  <si>
+    <t>Analista de Almacen</t>
+  </si>
+  <si>
+    <t>MIni PC</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Win 10 21H2 Jun 2023</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Activado</t>
+  </si>
+  <si>
+    <t>Office LTSC Profesional Plus 2024</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CECHRIZA</t>
+  </si>
+  <si>
+    <t>8CC94109D5</t>
+  </si>
+  <si>
+    <t>i5-9500Y</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Logitech K345</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>LS24F350FHLXPE</t>
+  </si>
+  <si>
+    <t>Sin problemas reportados</t>
+  </si>
+  <si>
+    <t>Michael Romero</t>
+  </si>
+  <si>
+    <t>Jefe de Almacen</t>
+  </si>
+  <si>
+    <t>gigabyte</t>
+  </si>
+  <si>
+    <t>B85M-DS3H</t>
+  </si>
+  <si>
+    <t>jefealmacen</t>
+  </si>
+  <si>
+    <t>No Aplica</t>
+  </si>
+  <si>
+    <t>i5-4460</t>
+  </si>
+  <si>
+    <t>237GB</t>
+  </si>
+  <si>
+    <t>Microsoft 1454</t>
+  </si>
+  <si>
+    <t>Microsoft 1455</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>Ruben Zarate</t>
+  </si>
+  <si>
+    <t>Taller</t>
+  </si>
+  <si>
+    <t>Jefe de Taller</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>LNVNB161216</t>
+  </si>
+  <si>
+    <t>Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>Win 11 24H2 Jan 2026</t>
+  </si>
+  <si>
+    <t>Office para empresas</t>
+  </si>
+  <si>
+    <t>Logitech M280</t>
+  </si>
+  <si>
+    <t>Lg</t>
+  </si>
+  <si>
+    <t>Nicolas Moreno</t>
+  </si>
+  <si>
+    <t>Operaciones</t>
+  </si>
+  <si>
+    <t>Asistente de Operaciones</t>
+  </si>
+  <si>
+    <t>Win 11 24H2 FEB 2026</t>
+  </si>
+  <si>
+    <t>Rafael Mariategui</t>
+  </si>
+  <si>
+    <t>PF573QEX</t>
+  </si>
+  <si>
+    <t>Logitech m185</t>
+  </si>
+  <si>
+    <t>Logitech K285</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>Derick Escalante</t>
+  </si>
+  <si>
+    <t>Mini PC</t>
+  </si>
+  <si>
+    <t>83F3</t>
+  </si>
+  <si>
+    <t>OPERACIONES6</t>
+  </si>
+  <si>
+    <t>8CC9261VX</t>
+  </si>
+  <si>
+    <t>Logitech K270</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Grecia Dominguez</t>
+  </si>
+  <si>
+    <t>Win 11 25H2 feb 2025</t>
+  </si>
+  <si>
+    <t>GRECIA DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>PF5740KL</t>
+  </si>
+  <si>
+    <t>Miguel Vergara</t>
+  </si>
+  <si>
+    <t>Supervisor de Operaciones</t>
+  </si>
+  <si>
+    <t>PF573W0X</t>
+  </si>
+  <si>
+    <t>Omar Camacho</t>
+  </si>
+  <si>
+    <t>Analista de Operaciones</t>
+  </si>
+  <si>
+    <t>H510M H</t>
+  </si>
+  <si>
+    <t>Win 11 25H2 mar 2025</t>
+  </si>
+  <si>
+    <t>operaciones12</t>
+  </si>
+  <si>
+    <t>i5-10400</t>
+  </si>
+  <si>
+    <t>466GB</t>
+  </si>
+  <si>
+    <t>Logitech M275</t>
+  </si>
+  <si>
+    <t>Samsung, lg</t>
+  </si>
+  <si>
+    <t>Yeson Condori</t>
+  </si>
+  <si>
+    <t>PRO H610M-G DDR4 (MS-7D46)</t>
+  </si>
+  <si>
+    <t>i5-12400</t>
+  </si>
+  <si>
+    <t>Logitech M170</t>
+  </si>
+  <si>
+    <t>Logitech K235</t>
+  </si>
+  <si>
+    <t>Yex Hinostroza</t>
+  </si>
+  <si>
+    <t>Win 11 24H2 feb 2025</t>
+  </si>
+  <si>
+    <t>PF573SP2</t>
+  </si>
+  <si>
+    <t>Valeria Garcia</t>
+  </si>
+  <si>
+    <t>X1605VA</t>
+  </si>
+  <si>
+    <t>Win 11 24H2 nov 2025</t>
+  </si>
+  <si>
+    <t>T6N0CV16A72126C</t>
+  </si>
+  <si>
+    <t>i5-13420H</t>
+  </si>
+  <si>
+    <t>Adrian Malca</t>
+  </si>
+  <si>
+    <t>Auxiliar de Operaciones</t>
+  </si>
+  <si>
+    <t>Win 11 21H2 jun 2023</t>
+  </si>
+  <si>
+    <t>8CC92601RC</t>
+  </si>
+  <si>
+    <t>Logitech M-U0026</t>
+  </si>
+  <si>
+    <t>Microsoft 1366</t>
+  </si>
+  <si>
+    <t>lG</t>
+  </si>
+  <si>
+    <t>Brayan Cruz</t>
+  </si>
+  <si>
+    <t>MS-7D22</t>
+  </si>
+  <si>
+    <t>OPERACIONES8</t>
+  </si>
+  <si>
+    <t>i5-10440</t>
+  </si>
+  <si>
+    <t>465GB</t>
+  </si>
+  <si>
+    <t>Brigitte Flores</t>
+  </si>
+  <si>
+    <t>83ER</t>
+  </si>
+  <si>
+    <t>PF573N38</t>
+  </si>
+  <si>
+    <t>476gb</t>
+  </si>
+  <si>
+    <t>Andres Paredes</t>
+  </si>
+  <si>
+    <t>Tecnico de Operaciones</t>
+  </si>
+  <si>
+    <t>Latitude 7290</t>
+  </si>
+  <si>
+    <t>Brigfithe Pablo</t>
+  </si>
+  <si>
+    <t>IM6RMV2</t>
+  </si>
+  <si>
+    <t>i5-8250U</t>
+  </si>
+  <si>
+    <t>475GB</t>
+  </si>
+  <si>
+    <t>Logitech K275</t>
+  </si>
+  <si>
+    <t>La laptop es muy lento.</t>
+  </si>
+  <si>
+    <t>Jorge Chavez</t>
+  </si>
+  <si>
+    <t>Soporte Tecnico Mesa de Ayuda</t>
+  </si>
+  <si>
+    <t>Aspire A515-54</t>
+  </si>
+  <si>
+    <t>Windows 11 Home</t>
+  </si>
+  <si>
+    <t>Win 11 25h2 nov 2025</t>
+  </si>
+  <si>
+    <t>Cech cechriza</t>
+  </si>
+  <si>
+    <t>NXHN2AL00E117073CC7600</t>
+  </si>
+  <si>
+    <t>i3-1011U</t>
+  </si>
+  <si>
+    <t>222GB</t>
+  </si>
+  <si>
+    <t>Logitech K170</t>
+  </si>
+  <si>
+    <t>Jennifer Rojas Torres</t>
+  </si>
+  <si>
+    <t>Supervisora de Mejora Continua</t>
+  </si>
+  <si>
+    <t>Inspiron 15 3520</t>
+  </si>
+  <si>
+    <t>Win 11 24H2 mar 2025</t>
+  </si>
+  <si>
+    <t>jenifer.rojas</t>
+  </si>
+  <si>
+    <t>BF08D74</t>
+  </si>
+  <si>
+    <t>i5-1235U</t>
+  </si>
+  <si>
+    <t>Diego Zavala</t>
+  </si>
+  <si>
+    <t>Gerente de Planeamiento</t>
+  </si>
+  <si>
+    <t>Win 11 22H2 mar 2022</t>
+  </si>
+  <si>
+    <t>DIEGO ZAVALA</t>
+  </si>
+  <si>
+    <t>446GB</t>
+  </si>
+  <si>
+    <t>Johana Camacho</t>
+  </si>
+  <si>
+    <t>Administración</t>
+  </si>
+  <si>
+    <t>Asistente de Gerencia de Facturación</t>
+  </si>
+  <si>
+    <t>Win 10 22H2 Jun 2023</t>
+  </si>
+  <si>
+    <t>Office 2019 Pro</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>FACTURACIÓN</t>
+  </si>
+  <si>
+    <t>Logitech M220</t>
+  </si>
+  <si>
+    <t>Logitech K295</t>
+  </si>
+  <si>
+    <t>Karen Orosco</t>
+  </si>
+  <si>
+    <t>Assistente de Importaciones Y Logistica</t>
+  </si>
+  <si>
+    <t>JHOVER ARTOLA</t>
+  </si>
+  <si>
+    <t>i5-7400</t>
+  </si>
+  <si>
+    <t>232GB</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>930GB</t>
+  </si>
+  <si>
+    <t>Tatiana Tapia</t>
+  </si>
+  <si>
+    <t>Jefe de Administración y Logistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Mondo 2016 </t>
+  </si>
+  <si>
+    <t>ASISTENTE1</t>
+  </si>
+  <si>
+    <t>Logitech M310</t>
+  </si>
+  <si>
+    <t>Logitech K540</t>
+  </si>
+  <si>
+    <t>Edwin Mantari</t>
+  </si>
+  <si>
+    <t>Servicio General</t>
+  </si>
+  <si>
+    <t>Jefe de Servicios Generales</t>
+  </si>
+  <si>
+    <t>B760M K DDR4</t>
+  </si>
+  <si>
+    <t>Win 11 22H2 jun 2023</t>
+  </si>
+  <si>
+    <t>Logitech K95</t>
+  </si>
+  <si>
+    <t>Samsung,LG</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>LG,LG</t>
+  </si>
+  <si>
+    <t>IdeaPad Slim 3 15AH8</t>
+  </si>
+  <si>
+    <t>INTEL I5 1245OH</t>
+  </si>
+  <si>
+    <t>cambio de equipo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,12 +2198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1620,29 +2206,8 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1652,25 +2217,42 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1708,8 +2290,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1904,23 +2504,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1930,119 +2558,124 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3154,10 +3787,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,9 +3799,9 @@
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="29.28515625" customWidth="1"/>
@@ -3218,21 +3851,21 @@
       <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="31" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3244,7 +3877,7 @@
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -3260,7 +3893,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>366</v>
       </c>
       <c r="B3" t="s">
@@ -3281,7 +3914,7 @@
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -3297,7 +3930,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>365</v>
       </c>
       <c r="B4" t="s">
@@ -3318,10 +3951,10 @@
       <c r="G4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -3329,12 +3962,12 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="35" t="s">
         <v>359</v>
       </c>
       <c r="B5" t="s">
@@ -3346,19 +3979,21 @@
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="67" t="s">
         <v>400</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>401</v>
       </c>
       <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="35" t="s">
         <v>375</v>
       </c>
       <c r="B6" t="s">
@@ -3379,10 +4014,10 @@
       <c r="G6" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>121</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -3392,7 +4027,7 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="35" t="s">
         <v>361</v>
       </c>
       <c r="B7" t="s">
@@ -3413,7 +4048,7 @@
       <c r="G7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -3429,43 +4064,43 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="41"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="39" t="s">
         <v>357</v>
       </c>
       <c r="B9" t="s">
@@ -3486,7 +4121,7 @@
       <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -3500,46 +4135,46 @@
       <c r="M9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="34"/>
+      <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="35" t="s">
         <v>363</v>
       </c>
       <c r="B11" t="s">
@@ -3548,53 +4183,53 @@
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>402</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="21" t="s">
         <v>497</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="49"/>
+      <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="35" t="s">
         <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -3610,31 +4245,31 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="57" t="s">
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="N13" s="46" t="s">
+      <c r="N13" s="38" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="35" t="s">
         <v>347</v>
       </c>
       <c r="B14" t="s">
@@ -3651,6 +4286,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
         <v>22</v>
@@ -3662,73 +4298,73 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="22" t="s">
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="N15" s="41"/>
-    </row>
-    <row r="16" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="N15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="22" t="s">
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="N16" s="41"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="35" t="s">
         <v>376</v>
       </c>
       <c r="B17" t="s">
@@ -3745,6 +4381,8 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" t="s">
         <v>22</v>
       </c>
@@ -3753,84 +4391,93 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41" t="s">
-        <v>498</v>
-      </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="41"/>
+      <c r="E18" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="33"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="N19" s="58"/>
+      <c r="N19" s="45"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -3839,12 +4486,12 @@
       <c r="J20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="35" t="s">
+      <c r="M20" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="35" t="s">
         <v>362</v>
       </c>
       <c r="B21" t="s">
@@ -3865,7 +4512,7 @@
       <c r="G21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -3881,22 +4528,22 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="35" t="s">
         <v>348</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -3915,118 +4562,118 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="35" t="s">
         <v>160</v>
       </c>
       <c r="B23" t="s">
         <v>161</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J23" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="28" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="36" t="s">
         <v>380</v>
       </c>
       <c r="B24" t="s">
         <v>381</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="4" t="s">
         <v>384</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+    <row r="25" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="22" t="s">
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="41"/>
+      <c r="N25" s="33"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="36" t="s">
         <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -4035,13 +4682,13 @@
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -4057,7 +4704,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="35" t="s">
         <v>354</v>
       </c>
       <c r="B27" t="s">
@@ -4078,7 +4725,7 @@
       <c r="G27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -4094,7 +4741,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="35" t="s">
         <v>358</v>
       </c>
       <c r="B28" t="s">
@@ -4115,7 +4762,7 @@
       <c r="G28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -4131,13 +4778,13 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="36" t="s">
         <v>369</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -4152,27 +4799,27 @@
       <c r="G29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J29" t="s">
         <v>77</v>
       </c>
-      <c r="M29" s="35" t="s">
+      <c r="M29" s="28" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -4187,23 +4834,23 @@
       <c r="G30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="35" t="s">
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="35" t="s">
         <v>350</v>
       </c>
       <c r="B31" t="s">
@@ -4222,7 +4869,7 @@
       <c r="G31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -4238,7 +4885,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="35" t="s">
         <v>370</v>
       </c>
       <c r="B32" t="s">
@@ -4250,7 +4897,7 @@
       <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="19" t="s">
         <v>63</v>
       </c>
       <c r="F32" s="11" t="s">
@@ -4259,7 +4906,7 @@
       <c r="G32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -4272,7 +4919,7 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="35" t="s">
         <v>374</v>
       </c>
       <c r="B33" t="s">
@@ -4293,7 +4940,7 @@
       <c r="G33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -4306,22 +4953,22 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="35" t="s">
         <v>166</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>168</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -4338,7 +4985,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="35" t="s">
         <v>351</v>
       </c>
       <c r="B35" t="s">
@@ -4359,7 +5006,7 @@
       <c r="G35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -4375,7 +5022,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="35" t="s">
         <v>356</v>
       </c>
       <c r="B36" t="s">
@@ -4396,7 +5043,7 @@
       <c r="G36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -4412,22 +5059,22 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="36" t="s">
         <v>352</v>
       </c>
       <c r="B37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G37" s="11" t="s">
@@ -4436,7 +5083,7 @@
       <c r="H37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -4449,28 +5096,28 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="57" t="s">
         <v>496</v>
       </c>
       <c r="B38" t="s">
         <v>113</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>114</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -4486,7 +5133,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="35" t="s">
         <v>371</v>
       </c>
       <c r="B39" t="s">
@@ -4498,7 +5145,7 @@
       <c r="D39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="67" t="s">
         <v>68</v>
       </c>
       <c r="F39" s="11" t="s">
@@ -4507,10 +5154,10 @@
       <c r="G39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="4" t="s">
         <v>134</v>
       </c>
       <c r="J39" t="s">
@@ -4519,7 +5166,7 @@
       <c r="M39" s="14"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="35" t="s">
         <v>367</v>
       </c>
       <c r="B40" t="s">
@@ -4540,10 +5187,10 @@
       <c r="G40" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J40" t="s">
@@ -4554,7 +5201,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="58" t="s">
         <v>495</v>
       </c>
       <c r="B41" t="s">
@@ -4578,7 +5225,7 @@
       <c r="H41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J41" s="4" t="s">
@@ -4591,7 +5238,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="35" t="s">
         <v>364</v>
       </c>
       <c r="B42" t="s">
@@ -4612,7 +5259,7 @@
       <c r="G42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -4628,13 +5275,13 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="35" t="s">
         <v>368</v>
       </c>
       <c r="B43" t="s">
         <v>157</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -4649,7 +5296,7 @@
       <c r="G43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -4665,72 +5312,9 @@
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
+      <c r="A64" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="44" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="42" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="41" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="duplicateValues" dxfId="40" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="duplicateValues" dxfId="38" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="duplicateValues" dxfId="37" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="duplicateValues" dxfId="36" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="duplicateValues" dxfId="35" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="duplicateValues" dxfId="34" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="duplicateValues" dxfId="32" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{49C3C192-6F1E-4E9D-A016-4A4A06A791EA}"/>
     <hyperlink ref="M42" r:id="rId2" xr:uid="{B40691EF-9F9D-4AFD-B44B-0B7EB3DFEC90}"/>
@@ -4775,8 +5359,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="A22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4837,7 +5421,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="35" t="s">
         <v>185</v>
       </c>
       <c r="B2" t="s">
@@ -4858,7 +5442,7 @@
       <c r="G2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -4873,7 +5457,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>207</v>
       </c>
       <c r="B3" t="s">
@@ -4885,7 +5469,7 @@
       <c r="D3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="19" t="s">
         <v>199</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -4894,10 +5478,10 @@
       <c r="G3" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>121</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -4909,7 +5493,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>211</v>
       </c>
       <c r="B4" t="s">
@@ -4924,13 +5508,13 @@
       <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>213</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -4942,25 +5526,27 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="35" t="s">
         <v>304</v>
       </c>
       <c r="B5" t="s">
         <v>305</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>228</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>408</v>
       </c>
       <c r="G5" s="11"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" t="s">
         <v>22</v>
       </c>
@@ -4969,13 +5555,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="35" t="s">
         <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>178</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -4984,7 +5570,7 @@
       <c r="E6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="16" t="s">
         <v>179</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -5005,7 +5591,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="35" t="s">
         <v>267</v>
       </c>
       <c r="B7" t="s">
@@ -5026,10 +5612,10 @@
       <c r="G7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -5041,7 +5627,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="35" t="s">
         <v>214</v>
       </c>
       <c r="B8" t="s">
@@ -5056,10 +5642,11 @@
       <c r="E8" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="16" t="s">
         <v>410</v>
       </c>
       <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
         <v>22</v>
@@ -5068,10 +5655,10 @@
       <c r="L8" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="M8" s="34"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="35" t="s">
         <v>291</v>
       </c>
       <c r="B9" t="s">
@@ -5090,16 +5677,18 @@
         <v>412</v>
       </c>
       <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="M9" s="49"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="36" t="s">
         <v>244</v>
       </c>
       <c r="B10" t="s">
@@ -5114,17 +5703,18 @@
       <c r="E10" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
         <v>497</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="M10" s="49"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="35" t="s">
         <v>197</v>
       </c>
       <c r="B11" t="s">
@@ -5145,10 +5735,10 @@
       <c r="G11" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>121</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -5159,43 +5749,43 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12"/>
-      <c r="F12" s="51" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
       </c>
       <c r="K12"/>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="28" t="s">
         <v>318</v>
       </c>
       <c r="M12"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="35" t="s">
         <v>232</v>
       </c>
       <c r="B13" t="s">
@@ -5210,13 +5800,13 @@
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="70" t="s">
         <v>234</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -5231,31 +5821,31 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J14" t="s">
@@ -5263,13 +5853,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="35" t="s">
         <v>236</v>
       </c>
       <c r="B15" t="s">
         <v>237</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -5299,19 +5889,19 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="35" t="s">
         <v>226</v>
       </c>
       <c r="B16" t="s">
         <v>227</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="71" t="s">
         <v>228</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -5335,7 +5925,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="35" t="s">
         <v>286</v>
       </c>
       <c r="B17" t="s">
@@ -5371,7 +5961,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="35" t="s">
         <v>260</v>
       </c>
       <c r="B18" t="s">
@@ -5407,7 +5997,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="35" t="s">
         <v>275</v>
       </c>
       <c r="B19" t="s">
@@ -5428,10 +6018,10 @@
       <c r="G19" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>97</v>
       </c>
       <c r="J19" t="s">
@@ -5442,7 +6032,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="35" t="s">
         <v>264</v>
       </c>
       <c r="B20" t="s">
@@ -5475,7 +6065,7 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="35" t="s">
         <v>217</v>
       </c>
       <c r="B21" t="s">
@@ -5490,7 +6080,7 @@
       <c r="E21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="4" t="s">
         <v>41</v>
       </c>
@@ -5509,41 +6099,41 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="74" t="s">
+      <c r="J22" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="34"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="35" t="s">
         <v>271</v>
       </c>
       <c r="B23" t="s">
@@ -5558,16 +6148,16 @@
       <c r="E23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="20" t="s">
         <v>273</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -5579,28 +6169,28 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="36" t="s">
         <v>248</v>
       </c>
       <c r="B24" t="s">
         <v>249</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -5611,7 +6201,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="35" t="s">
         <v>252</v>
       </c>
       <c r="B25" t="s">
@@ -5632,7 +6222,7 @@
       <c r="G25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -5647,7 +6237,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="35" t="s">
         <v>282</v>
       </c>
       <c r="B26" t="s">
@@ -5668,10 +6258,10 @@
       <c r="G26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -5683,19 +6273,19 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="35" t="s">
         <v>307</v>
       </c>
       <c r="B27" t="s">
         <v>308</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>199</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -5716,28 +6306,28 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="36" t="s">
         <v>256</v>
       </c>
       <c r="B28" t="s">
         <v>257</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -5746,12 +6336,12 @@
       <c r="J28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="28" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="35" t="s">
         <v>298</v>
       </c>
       <c r="B29" t="s">
@@ -5766,13 +6356,13 @@
       <c r="E29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>300</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -5784,28 +6374,28 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="36" t="s">
         <v>220</v>
       </c>
       <c r="B30" t="s">
         <v>221</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -5816,7 +6406,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="35" t="s">
         <v>379</v>
       </c>
       <c r="B31" t="s">
@@ -5837,7 +6427,7 @@
       <c r="G31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -5852,16 +6442,16 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="36" t="s">
         <v>223</v>
       </c>
       <c r="B32" t="s">
         <v>224</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -5873,7 +6463,7 @@
       <c r="G32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -5885,7 +6475,7 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="35" t="s">
         <v>169</v>
       </c>
       <c r="B33" t="s">
@@ -5906,7 +6496,7 @@
       <c r="G33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -5921,7 +6511,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="56" t="s">
         <v>182</v>
       </c>
       <c r="B34" t="s">
@@ -5933,16 +6523,16 @@
       <c r="D34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -5952,12 +6542,12 @@
         <v>22</v>
       </c>
       <c r="K34" s="4"/>
-      <c r="L34" s="36" t="s">
+      <c r="L34" s="29" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="35" t="s">
         <v>240</v>
       </c>
       <c r="B35" t="s">
@@ -5978,7 +6568,7 @@
       <c r="G35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -5993,7 +6583,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="35" t="s">
         <v>310</v>
       </c>
       <c r="B36" t="s">
@@ -6008,13 +6598,13 @@
       <c r="E36" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="11" t="s">
         <v>313</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -6029,7 +6619,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="35" t="s">
         <v>203</v>
       </c>
       <c r="B37" t="s">
@@ -6050,7 +6640,7 @@
       <c r="G37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -6065,7 +6655,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="35" t="s">
         <v>294</v>
       </c>
       <c r="B38" t="s">
@@ -6080,13 +6670,13 @@
       <c r="E38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="F38" s="11" t="s">
         <v>296</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -6101,7 +6691,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="35" t="s">
         <v>173</v>
       </c>
       <c r="B39" t="s">
@@ -6116,13 +6706,13 @@
       <c r="E39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="11" t="s">
         <v>175</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -6137,13 +6727,13 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="36" t="s">
         <v>189</v>
       </c>
       <c r="B40" t="s">
         <v>190</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -6152,13 +6742,13 @@
       <c r="E40" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>192</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="4" t="s">
         <v>194</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -6167,75 +6757,18 @@
       <c r="J40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="35" t="s">
+      <c r="L40" s="28" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="51"/>
+      <c r="F49" s="42"/>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F72" s="51"/>
+      <c r="F72" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="23" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="22" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="21" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="20" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="19" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="duplicateValues" dxfId="18" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="duplicateValues" dxfId="17" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="duplicateValues" dxfId="15" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="duplicateValues" dxfId="14" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-  </conditionalFormatting>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L5" r:id="rId1" xr:uid="{C97769CF-3044-42AD-8E73-0AAB929F2485}"/>
     <hyperlink ref="L6" r:id="rId2" xr:uid="{CA862742-B917-4A6E-95CD-B64BE4002247}"/>
@@ -6280,7 +6813,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6335,16 +6868,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="41" t="s">
         <v>319</v>
       </c>
       <c r="B2" t="s">
         <v>320</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -6369,16 +6902,16 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>322</v>
       </c>
       <c r="B3" t="s">
         <v>323</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -6390,10 +6923,10 @@
       <c r="G3" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>121</v>
       </c>
       <c r="J3" t="s">
@@ -6401,7 +6934,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>326</v>
       </c>
       <c r="B4" t="s">
@@ -6422,10 +6955,10 @@
       <c r="G4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>330</v>
       </c>
       <c r="J4" t="s">
@@ -6434,7 +6967,7 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="35" t="s">
         <v>331</v>
       </c>
       <c r="B5" t="s">
@@ -6453,13 +6986,15 @@
         <v>424</v>
       </c>
       <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="35" t="s">
         <v>333</v>
       </c>
       <c r="B6" t="s">
@@ -6480,10 +7015,10 @@
       <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
@@ -6492,7 +7027,7 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="35" t="s">
         <v>336</v>
       </c>
       <c r="B7" t="s">
@@ -6504,10 +7039,10 @@
       <c r="D7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="20" t="s">
         <v>338</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -6524,7 +7059,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="35" t="s">
         <v>339</v>
       </c>
       <c r="B8" t="s">
@@ -6545,10 +7080,10 @@
       <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>387</v>
       </c>
       <c r="J8" t="s">
@@ -6556,30 +7091,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="57" t="s">
         <v>341</v>
       </c>
       <c r="B9" t="s">
         <v>491</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="30" t="s">
         <v>343</v>
       </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="35" t="s">
         <v>127</v>
       </c>
       <c r="B10" t="s">
@@ -6594,13 +7132,13 @@
       <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -6613,135 +7151,120 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="75">
         <v>8551705504</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -6750,6 +7273,2198 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DD360F-281B-4C1E-AE85-D49D6980DF72}">
+  <dimension ref="A1:AH23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="32.7109375" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" customWidth="1"/>
+    <col min="28" max="28" width="27.85546875" customWidth="1"/>
+    <col min="29" max="29" width="26.140625" customWidth="1"/>
+    <col min="30" max="30" width="22.140625" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" customWidth="1"/>
+    <col min="32" max="32" width="27.42578125" customWidth="1"/>
+    <col min="33" max="33" width="32.28515625" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>690</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>507</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>509</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>510</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>512</v>
+      </c>
+      <c r="P1" s="63" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q1" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="R1" s="63" t="s">
+        <v>512</v>
+      </c>
+      <c r="S1" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="T1" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="U1" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="V1" s="63" t="s">
+        <v>517</v>
+      </c>
+      <c r="W1" s="63" t="s">
+        <v>518</v>
+      </c>
+      <c r="X1" s="63" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y1" s="63" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z1" s="63" t="s">
+        <v>521</v>
+      </c>
+      <c r="AA1" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB1" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC1" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD1" s="63" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE1" s="63" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF1" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG1" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="AH1" s="65" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="59">
+        <v>161</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" s="59">
+        <v>0</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>531</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59">
+        <v>8598</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S2" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="T2" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="U2" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="V2" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W2" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="X2" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD2" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE2" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF2" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG2" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH2" s="59"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="59">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="59">
+        <v>160</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="E3" s="59">
+        <v>0</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R3" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S3" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="T3" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="U3" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="V3" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W3" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="X3" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" s="59" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD3" s="59" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE3" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF3" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG3" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH3" s="59"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="59">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="59">
+        <v>143</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>558</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>559</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>560</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>564</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S4" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="T4" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="U4" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="V4" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W4" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="X4" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="59" t="s">
+        <v>566</v>
+      </c>
+      <c r="AD4" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE4" s="59" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF4" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG4" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH4" s="59"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="59">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="59">
+        <v>7</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="E5" s="59">
+        <v>2</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>571</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S5" s="59" t="s">
+        <v>572</v>
+      </c>
+      <c r="T5" s="59" t="s">
+        <v>573</v>
+      </c>
+      <c r="U5" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="V5" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W5" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="X5" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD5" s="59" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE5" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="AF5" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG5" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH5" s="59"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="59">
+        <v>140</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>577</v>
+      </c>
+      <c r="E6" s="59">
+        <v>2</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
+        <v>579</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>580</v>
+      </c>
+      <c r="T6" s="59" t="s">
+        <v>581</v>
+      </c>
+      <c r="U6" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="V6" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W6" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="X6" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD6" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="AE6" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF6" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG6" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH6" s="59"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" s="59">
+        <v>4</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>584</v>
+      </c>
+      <c r="E7" s="59">
+        <v>2</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>585</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S7" s="59" t="s">
+        <v>586</v>
+      </c>
+      <c r="T7" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="U7" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="V7" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W7" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="X7" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD7" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="AE7" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF7" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG7" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH7" s="59"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
+        <v>7</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="59">
+        <v>10</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="E8" s="59">
+        <v>2</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>585</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P8" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R8" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S8" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="T8" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="U8" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="V8" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W8" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="X8" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="59" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD8" s="59" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE8" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF8" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG8" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH8" s="59"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
+        <v>8</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="59">
+        <v>144</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>591</v>
+      </c>
+      <c r="E9" s="59">
+        <v>2</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>592</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>593</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>594</v>
+      </c>
+      <c r="N9" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P9" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R9" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S9" s="59" t="s">
+        <v>595</v>
+      </c>
+      <c r="T9" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="U9" s="59" t="s">
+        <v>596</v>
+      </c>
+      <c r="V9" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W9" s="59" t="s">
+        <v>597</v>
+      </c>
+      <c r="X9" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD9" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE9" s="59" t="s">
+        <v>599</v>
+      </c>
+      <c r="AF9" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG9" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH9" s="59"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="59">
+        <v>9</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" s="59">
+        <v>12</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>600</v>
+      </c>
+      <c r="E10" s="59">
+        <v>2</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59" t="s">
+        <v>601</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="N10" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O10" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P10" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R10" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S10" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="T10" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="U10" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="V10" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W10" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="X10" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59">
+        <v>16</v>
+      </c>
+      <c r="AC10" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD10" s="59" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE10" s="59" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF10" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG10" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH10" s="59"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="59">
+        <v>10</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="59">
+        <v>5</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>605</v>
+      </c>
+      <c r="E11" s="59">
+        <v>2</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59" t="s">
+        <v>562</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="N11" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P11" s="59" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q11" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R11" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S11" s="59" t="s">
+        <v>605</v>
+      </c>
+      <c r="T11" s="59" t="s">
+        <v>607</v>
+      </c>
+      <c r="U11" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="V11" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W11" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="X11" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD11" s="59" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE11" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF11" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG11" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH11" s="59"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="59">
+        <v>11</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" s="59">
+        <v>155</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>608</v>
+      </c>
+      <c r="E12" s="59">
+        <v>2</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59" t="s">
+        <v>609</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>610</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P12" s="59" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R12" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S12" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="T12" s="59" t="s">
+        <v>611</v>
+      </c>
+      <c r="U12" s="59" t="s">
+        <v>612</v>
+      </c>
+      <c r="V12" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W12" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="X12" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59">
+        <v>16</v>
+      </c>
+      <c r="AC12" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD12" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE12" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF12" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG12" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH12" s="59"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="59">
+        <v>12</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" s="59">
+        <v>178</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>613</v>
+      </c>
+      <c r="E13" s="59">
+        <v>2</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>614</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>532</v>
+      </c>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59" t="s">
+        <v>579</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="N13" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O13" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P13" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q13" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R13" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S13" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="T13" s="59" t="s">
+        <v>616</v>
+      </c>
+      <c r="U13" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="V13" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W13" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="X13" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="59" t="s">
+        <v>617</v>
+      </c>
+      <c r="AD13" s="59" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE13" s="59" t="s">
+        <v>619</v>
+      </c>
+      <c r="AF13" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG13" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH13" s="59"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="62">
+        <v>13</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59" t="s">
+        <v>620</v>
+      </c>
+      <c r="E14" s="59">
+        <v>2</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59" t="s">
+        <v>621</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="N14" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O14" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P14" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q14" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R14" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S14" s="59" t="s">
+        <v>622</v>
+      </c>
+      <c r="T14" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="U14" s="59" t="s">
+        <v>623</v>
+      </c>
+      <c r="V14" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W14" s="59" t="s">
+        <v>624</v>
+      </c>
+      <c r="X14" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59">
+        <v>32</v>
+      </c>
+      <c r="AC14" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD14" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE14" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF14" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG14" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH14" s="59"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="59">
+        <v>14</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="59">
+        <v>2</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="E15" s="59">
+        <v>2</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59" t="s">
+        <v>626</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="M15" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="N15" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O15" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P15" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q15" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R15" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S15" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="T15" s="59" t="s">
+        <v>627</v>
+      </c>
+      <c r="U15" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="V15" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W15" s="59" t="s">
+        <v>628</v>
+      </c>
+      <c r="X15" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD15" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE15" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AF15" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG15" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH15" s="59"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="59">
+        <v>15</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="59">
+        <v>90</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>629</v>
+      </c>
+      <c r="E16" s="59">
+        <v>2</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>630</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>691</v>
+      </c>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="L16" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>585</v>
+      </c>
+      <c r="N16" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="O16" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P16" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q16" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R16" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S16" s="59" t="s">
+        <v>632</v>
+      </c>
+      <c r="T16" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="U16" s="59" t="s">
+        <v>634</v>
+      </c>
+      <c r="V16" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W16" s="59" t="s">
+        <v>635</v>
+      </c>
+      <c r="X16" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59">
+        <v>8</v>
+      </c>
+      <c r="AC16" s="59" t="s">
+        <v>636</v>
+      </c>
+      <c r="AD16" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE16" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="AF16" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG16" s="59" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH16" s="59"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="59">
+        <v>16</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C17" s="59">
+        <v>142</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>638</v>
+      </c>
+      <c r="E17" s="59">
+        <v>2</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>639</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59" t="s">
+        <v>640</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>641</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>642</v>
+      </c>
+      <c r="N17" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="O17" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P17" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R17" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S17" s="59" t="s">
+        <v>643</v>
+      </c>
+      <c r="T17" s="59" t="s">
+        <v>644</v>
+      </c>
+      <c r="U17" s="59" t="s">
+        <v>645</v>
+      </c>
+      <c r="V17" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W17" s="59" t="s">
+        <v>646</v>
+      </c>
+      <c r="X17" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="59" t="s">
+        <v>647</v>
+      </c>
+      <c r="AD17" s="59" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE17" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF17" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG17" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH17" s="59"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="59">
+        <v>17</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="59">
+        <v>112</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>648</v>
+      </c>
+      <c r="E18" s="59">
+        <v>2</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>649</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>691</v>
+      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59" t="s">
+        <v>650</v>
+      </c>
+      <c r="L18" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="M18" s="59" t="s">
+        <v>651</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="O18" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P18" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q18" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R18" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S18" s="59" t="s">
+        <v>652</v>
+      </c>
+      <c r="T18" s="61" t="s">
+        <v>653</v>
+      </c>
+      <c r="U18" s="59" t="s">
+        <v>654</v>
+      </c>
+      <c r="V18" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W18" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="X18" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="59" t="s">
+        <v>636</v>
+      </c>
+      <c r="AD18" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE18" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF18" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG18" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH18" s="59"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="59">
+        <v>18</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="59">
+        <v>153</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>655</v>
+      </c>
+      <c r="E19" s="59">
+        <v>2</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>656</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="K19" s="59" t="s">
+        <v>593</v>
+      </c>
+      <c r="L19" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M19" s="59" t="s">
+        <v>657</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P19" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R19" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S19" s="59" t="s">
+        <v>658</v>
+      </c>
+      <c r="T19" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="U19" s="59" t="s">
+        <v>596</v>
+      </c>
+      <c r="V19" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W19" s="59" t="s">
+        <v>659</v>
+      </c>
+      <c r="X19" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59">
+        <v>16</v>
+      </c>
+      <c r="AC19" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD19" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE19" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF19" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG19" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH19" s="59"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="59">
+        <v>19</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59" t="s">
+        <v>660</v>
+      </c>
+      <c r="E20" s="59">
+        <v>3</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>661</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>662</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>593</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M20" s="59" t="s">
+        <v>663</v>
+      </c>
+      <c r="N20" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="O20" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P20" s="59" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q20" s="59" t="s">
+        <v>665</v>
+      </c>
+      <c r="R20" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S20" s="59" t="s">
+        <v>666</v>
+      </c>
+      <c r="T20" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="U20" s="59" t="s">
+        <v>596</v>
+      </c>
+      <c r="V20" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W20" s="59" t="s">
+        <v>659</v>
+      </c>
+      <c r="X20" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59">
+        <v>16</v>
+      </c>
+      <c r="AC20" s="59" t="s">
+        <v>667</v>
+      </c>
+      <c r="AD20" s="59" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE20" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF20" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG20" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH20" s="59"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="59">
+        <v>20</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" s="59">
+        <v>182</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>669</v>
+      </c>
+      <c r="E21" s="59">
+        <v>3</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>661</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>670</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M21" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="N21" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="O21" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P21" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q21" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R21" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S21" s="59" t="s">
+        <v>671</v>
+      </c>
+      <c r="T21" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="U21" s="59" t="s">
+        <v>672</v>
+      </c>
+      <c r="V21" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W21" s="59" t="s">
+        <v>673</v>
+      </c>
+      <c r="X21" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="59" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z21" s="59" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA21" s="60">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="59">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD21" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE21" s="59" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF21" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG21" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH21" s="59"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="59">
+        <v>21</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="59">
+        <v>183</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="E22" s="59">
+        <v>3</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>661</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>677</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59" t="s">
+        <v>621</v>
+      </c>
+      <c r="L22" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M22" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="N22" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O22" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P22" s="59" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q22" s="59" t="s">
+        <v>665</v>
+      </c>
+      <c r="R22" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S22" s="59" t="s">
+        <v>679</v>
+      </c>
+      <c r="T22" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="U22" s="59" t="s">
+        <v>596</v>
+      </c>
+      <c r="V22" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W22" s="59" t="s">
+        <v>675</v>
+      </c>
+      <c r="X22" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59">
+        <v>16</v>
+      </c>
+      <c r="AC22" s="59" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD22" s="59" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE22" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="AF22" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG22" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH22" s="59"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="59">
+        <v>22</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" s="59">
+        <v>184</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>682</v>
+      </c>
+      <c r="E23" s="59">
+        <v>1</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>683</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>684</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59" t="s">
+        <v>685</v>
+      </c>
+      <c r="L23" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M23" s="59" t="s">
+        <v>686</v>
+      </c>
+      <c r="N23" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="O23" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="P23" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q23" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="R23" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="S23" s="59" t="s">
+        <v>580</v>
+      </c>
+      <c r="T23" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="U23" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="V23" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="W23" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="X23" s="60">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59">
+        <v>32</v>
+      </c>
+      <c r="AC23" s="59" t="s">
+        <v>667</v>
+      </c>
+      <c r="AD23" s="59" t="s">
+        <v>687</v>
+      </c>
+      <c r="AE23" s="59" t="s">
+        <v>688</v>
+      </c>
+      <c r="AF23" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG23" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH23" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E449B4A-8773-4D86-9A98-49C4719DE2E3}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:K12"/>
@@ -6770,31 +9485,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="26" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6833,29 +9548,29 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6865,7 +9580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32EBE27-F813-4D6C-8616-82A663A413E9}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -6887,37 +9602,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="26" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6942,31 +9657,31 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="52" t="s">
         <v>473</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="52" t="s">
         <v>475</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="52" t="s">
         <v>476</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -6984,7 +9699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C989D90-5BA4-4651-A179-357B77F66AE4}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:I6"/>
@@ -7044,7 +9759,7 @@
       <c r="C2" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>431</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -7064,17 +9779,17 @@
       <c r="A3" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="53" t="s">
         <v>480</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="54" t="s">
         <v>481</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -7146,7 +9861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8A3216-69B4-4065-AD55-85AF1B5F64D9}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -7162,22 +9877,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="50" t="s">
         <v>472</v>
       </c>
     </row>
@@ -7194,7 +9909,7 @@
       <c r="D2" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="51">
         <v>664</v>
       </c>
       <c r="F2" t="s">
@@ -7214,7 +9929,7 @@
       <c r="D3" t="s">
         <v>444</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="51" t="s">
         <v>445</v>
       </c>
       <c r="F3" t="s">
@@ -7234,7 +9949,7 @@
       <c r="D4" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="51" t="s">
         <v>447</v>
       </c>
       <c r="F4" t="s">
@@ -7254,7 +9969,7 @@
       <c r="D5" t="s">
         <v>444</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="51" t="s">
         <v>450</v>
       </c>
       <c r="F5" t="s">
@@ -7274,7 +9989,7 @@
       <c r="D6" t="s">
         <v>444</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="51" t="s">
         <v>453</v>
       </c>
       <c r="F6" t="s">
@@ -7294,7 +10009,7 @@
       <c r="D7" t="s">
         <v>440</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="51">
         <v>544</v>
       </c>
       <c r="F7" t="s">
@@ -7314,7 +10029,7 @@
       <c r="D8" t="s">
         <v>444</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="51" t="s">
         <v>458</v>
       </c>
       <c r="F8" t="s">
@@ -7334,7 +10049,7 @@
       <c r="D9" t="s">
         <v>440</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="51" t="s">
         <v>461</v>
       </c>
       <c r="F9" t="s">
@@ -7354,7 +10069,7 @@
       <c r="D10" t="s">
         <v>444</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="51" t="s">
         <v>465</v>
       </c>
       <c r="F10" t="s">
@@ -7374,7 +10089,7 @@
       <c r="D11" t="s">
         <v>444</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="51" t="s">
         <v>468</v>
       </c>
       <c r="F11" t="s">
@@ -7394,7 +10109,7 @@
       <c r="D12" t="s">
         <v>444</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="51" t="s">
         <v>445</v>
       </c>
       <c r="F12" t="s">
@@ -7416,19 +10131,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Responsable xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa" xsi:nil="true"/>
-    <Fecha xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa" xsi:nil="true"/>
-    <TaxCatchAll xmlns="7d884445-3d2b-4d2f-a5c8-52f2c582d699" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010053AD0A1E33F41645B7C17AA3FE2FDC7A" ma:contentTypeVersion="21" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d3047d8b2c195696087e98843153f143">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa" xmlns:ns3="7d884445-3d2b-4d2f-a5c8-52f2c582d699" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f9fb659f12e922e720e9af332d44a36" ns2:_="" ns3:_="">
     <xsd:import namespace="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa"/>
@@ -7703,6 +10405,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Responsable xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa" xsi:nil="true"/>
+    <Fecha xmlns="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa" xsi:nil="true"/>
+    <TaxCatchAll xmlns="7d884445-3d2b-4d2f-a5c8-52f2c582d699" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F158E06-BAB0-4893-91C7-AC2D0B102A6C}">
   <ds:schemaRefs>
@@ -7712,23 +10427,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590544F1-C56B-4980-8803-5B1A718685B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7d884445-3d2b-4d2f-a5c8-52f2c582d699"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A08F8860-4C76-4EF1-B3E0-9B345E1D4F41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7745,4 +10443,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590544F1-C56B-4980-8803-5B1A718685B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ccda677c-d47e-41e3-9f0f-bb7e9fe092aa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7d884445-3d2b-4d2f-a5c8-52f2c582d699"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>